--- a/DocFiller/Angebot M&F.xlsx
+++ b/DocFiller/Angebot M&F.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\RetosTools2\DocFiller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Geteilte Ablagen\MF_Diverses\Verkauf-Marketing\Marketing-Strategie\Angebot 2024\Angebot\BAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA33BAA9-5246-47DF-8AD7-6FB23EBDC819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD2BE43-F3FF-441A-965A-B54DA2F744DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8229" yWindow="0" windowWidth="24685" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Kundenbedürfnis</t>
   </si>
@@ -31,25 +31,10 @@
     <t>Beispiele</t>
   </si>
   <si>
-    <t>Personalmangel in SW-Projekt, kann aus versch. Gründen niemand einstellen, will aber Projekt selber bei sich machen.</t>
-  </si>
-  <si>
-    <t>Personalverleih passender Ressourcen, oft längerfristig</t>
-  </si>
-  <si>
     <t>Leica Geosystems, SPEAG, RUAG, Sensirion, Thales, Dectris, Uster, Hamilton...</t>
   </si>
   <si>
-    <t>Fehlendes Know-How in SW-Projekt, können es nicht einstellen</t>
-  </si>
-  <si>
-    <t>Personalverleih passender Ressourcen, oft eher kürzer oder sogar nur Beratung</t>
-  </si>
-  <si>
     <t>Thales Alenia Space (POC PePyt), Trafag (Datenbank), Besi (Web), Trumpf (Testing, 3D)</t>
-  </si>
-  <si>
-    <t>Bestehende SW für den Eigengebrauch wurde selber entwickelt, Tool kann nichtmehr gepflegt werden/muss modernisiert werden, ist aber wichtig für Firma, SW-Entwicklung ist nicht Kernkompetenz der Firma</t>
   </si>
   <si>
     <t>Übernahme und Wartung des Tools, früher oder später oft mit Neuentwicklung verbunden. Hauptangebot aus Sicht Kunden: SW-Pflege und Support, Team, agiles Team</t>
@@ -58,30 +43,10 @@
     <t>Siemens ProGen, Geberit Prüfstand, MAN, Hitachi WE, Hitachi Lenzburg</t>
   </si>
   <si>
-    <t>Neuer Trend in Industrie darf nicht verschlafen werden.</t>
-  </si>
-  <si>
-    <t>Know-How bringen und POC machen, um dabei zu sein,
-Schulung, Workshops</t>
-  </si>
-  <si>
-    <t>IOT: Schlatter, Spühl, Packsys
-AI: Weytech, Profidata, Siemens</t>
-  </si>
-  <si>
     <t>Gute Junge SW-Cracks einstellen</t>
   </si>
   <si>
-    <t>TP</t>
-  </si>
-  <si>
-    <t>Alle TP Partner</t>
-  </si>
-  <si>
     <t>Produktentwicklung sucht aus strategischen Gründen Partner für Software-Entwicklung, evaluiert mögliche Partner</t>
-  </si>
-  <si>
-    <t>Team, agiles Team</t>
   </si>
   <si>
     <t>Ionplus, Uster
@@ -91,16 +56,10 @@
     <t>Kunde will Geld in der Softwareentwicklugn sparen und/oder schnell ein grosses Team onboarden</t>
   </si>
   <si>
-    <t>Nearshoring</t>
-  </si>
-  <si>
     <t>Identech</t>
   </si>
   <si>
     <t>Kunde braucht Technologieberatung, Reviews</t>
-  </si>
-  <si>
-    <t>Experten, Analysen, Workshops</t>
   </si>
   <si>
     <t>Profidata (AI), Ionplus (SW System), Netstal (IoT/Machine Learning), Codan Argus, R&amp;M (SW Review), Thales (SW Review)</t>
@@ -109,13 +68,7 @@
     <t>Kunde braucht Prozess/Business Beratung</t>
   </si>
   <si>
-    <t>AI-Beratung</t>
-  </si>
-  <si>
     <t>Kunde braucht Prüfsystem für Produktion</t>
-  </si>
-  <si>
-    <t>Prüfsysteme komplett</t>
   </si>
   <si>
     <t>Geberit, Franke, Sauter</t>
@@ -130,22 +83,87 @@
     <t>Geberit, ABB Wettingen, Bystronic, Hamilton Medical</t>
   </si>
   <si>
-    <t>Kunde braucht ein SW-Portal für seine Kunden</t>
-  </si>
-  <si>
-    <t>Individualsoftware, Team</t>
-  </si>
-  <si>
     <t>Gietz, ABB Lenzburg</t>
   </si>
   <si>
-    <t>Kunde will seine Prozesse optimieren/automatisieren</t>
+    <t>AI: Weytech, Profidata, Siemens</t>
   </si>
   <si>
-    <t>AI-Beratung, AI-Individualsoftare, MF-GPT, ev. zusammen mit Integrator/LowCode/MES/ERP Lieferanten</t>
+    <t>Fehlendes Technologie-Know-How in Software-Projekt</t>
   </si>
   <si>
-    <t>AI: Weytech, Profidata, Siemens</t>
+    <t>Personalmangel in Software-Projekt. Kunde kann aus versch. Gründen niemanden einstellen, will aber Projekt selber bei sich machen.</t>
+  </si>
+  <si>
+    <t>Personalverleih passender Ressourcen, oft längerfristig. Wir haben sehr gute Software-Engineers auf Junior, Professional, Senior und Expert Levels. Ebenso Architekten, Productowner und Scrum Master</t>
+  </si>
+  <si>
+    <t>Personalverleih passender Ressourcen, oft eher kürzer oder sogar nur Beratungsmandat. Wir sind spezialisert auf Softwareengineering im Technisch/Industriellen Umfeld. Haupttechnologien sind C#/.NET, Webtechnologien (Angular), C++, Azure IoT, Generative AI, Python, verschiedene Datenbanksysteme (MS SQL Server, MariaDB, InfluxDB), Containerisierung, DevOps, Buildpipelines, Testautomatisierung, Software Qualitätssicherung</t>
+  </si>
+  <si>
+    <t>Software Lifecycle Management (Konzeption, Entwicklung, Wartung, Weiterentwicklung, Support, Betrieb), z.B. wenn eine bestehende Software für den Eigengebrauch selber entwickelt wurde und erneuert werden muss oder die Entwickler nicht mehr inder Firma sind.</t>
+  </si>
+  <si>
+    <t>Neuer Software/Technolgie-Trend in der Industrie darf nicht verschlafen werden.</t>
+  </si>
+  <si>
+    <t>Know-How in Firma bringen, Proof of Concepts machen, um dabei zu sein,
+Schulung, Workshops etc. für Firmen machen.</t>
+  </si>
+  <si>
+    <t>Webtechnologien für User Interface einführen, um Desktop-Applikaitojnen abzulösen: Ionplus, Besi
+IOT Lösungen für Maschinenbauer: Schlatter, Spühl, Packsys
+Generative AI Lösungen, Chatbots, RAG: Weytech, Profidata, Siemens</t>
+  </si>
+  <si>
+    <t>Software Trainee-Programm</t>
+  </si>
+  <si>
+    <t>Alle Trainee Programm Partner</t>
+  </si>
+  <si>
+    <t>Ganze Software-Teams, welche Kunden langfristig unterstützen mit SW Engineers, Architekten, Product Ownern, Scrum Mastern, Entwicklung vor Ort und Ergänzung durch Nearshoring</t>
+  </si>
+  <si>
+    <t>Nearshoring mit Partner in Rumänien</t>
+  </si>
+  <si>
+    <t>Experten, Analysen, Workshops,
+Software-Checkup (Review und Analyse bestehender SW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workshops für Software-Basierte Businessmodelle, Workshop "Wie kann man als Maschinenbauer Geld verdienen mit Software", Workshops für die Ausarbeitung von AI-Usecases.
+</t>
+  </si>
+  <si>
+    <t>Ferag, Netstal, Profidata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir bauen komplette, schlüsselfertige Sondermaschinen für die automatische Prüfung von Produkten oder Komponenten in der Produktion. Die Prüfsysteme können miteinander vernetzt werden und erlauben einen automatischen Datenabgleich mit ERP- und MES-Systemen und vollständige Rückverfolgbarkeit.
+</t>
+  </si>
+  <si>
+    <t>Kunde braucht ein Software Portal für seine Endkunden</t>
+  </si>
+  <si>
+    <t>Entwicklung und Betrieb von Software-Portalen inklusive integration von IoT, AI, und Chatbot Lösungen.</t>
+  </si>
+  <si>
+    <t>Kunde will seine Prozesse mit Generativer AI optimieren/automatisieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI-Beratung, AI-Individualsoftare, MF-GPT, ev. zusammen mit Integrator/LowCode/MES/ERP Lieferanten.
+Wir stellen ein komplettes AI-Team, welches sich kontinuierlich um die Verbesserung und automatisierung der Prozesse kümmert und sich in kürzester Zeit amortisiert.
+</t>
+  </si>
+  <si>
+    <t>Kunde möchte dank AI auf Qualitätsmängel, Fehler und/oder Prozessmängel in seiner Produktion hingewiesen werden.</t>
+  </si>
+  <si>
+    <t>Wir bauen AI-Basierte Bildverarbeitungssysteme und Datenanalyse-Systeme inklusive den passenden Dashboards und automatischen Notifizierungen</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -428,7 +446,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.61328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -449,151 +467,159 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.299999999999997" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="74.599999999999994" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="186.45" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="37.299999999999997" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="74.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="74.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="37.299999999999997" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="37.299999999999997" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="9" spans="1:3" ht="49.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="87" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="136.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="37.299999999999997" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="37.299999999999997" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="49.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="37.299999999999997" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="14" spans="1:3" ht="124.3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
+    </row>
+    <row r="15" spans="1:3" ht="62.15" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="49.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="37.299999999999997" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="24.9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="49.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
